--- a/TestData/Contract.xlsx
+++ b/TestData/Contract.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>URL</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>Approval</t>
+  </si>
+  <si>
+    <t>Statutory Dashboard All</t>
   </si>
 </sst>
 </file>
@@ -629,7 +632,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -734,6 +737,9 @@
       <c r="B10" s="4">
         <v>44980</v>
       </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestData/Contract.xlsx
+++ b/TestData/Contract.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>URL</t>
   </si>
@@ -110,6 +110,24 @@
   </si>
   <si>
     <t>Statutory Dashboard All</t>
+  </si>
+  <si>
+    <t xml:space="preserve">left All Tab </t>
+  </si>
+  <si>
+    <t>Approval (Internal)</t>
+  </si>
+  <si>
+    <t>internal All Dashboard</t>
+  </si>
+  <si>
+    <t>Department Login</t>
+  </si>
+  <si>
+    <t>Starting to Dept Sum</t>
+  </si>
+  <si>
+    <t>Period wise to All Left</t>
   </si>
 </sst>
 </file>
@@ -629,10 +647,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -642,7 +660,7 @@
     <col min="3" max="3" width="54.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -653,7 +671,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -664,7 +682,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -675,7 +693,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -686,7 +704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -697,7 +715,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -708,7 +726,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -719,7 +737,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -730,7 +748,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -739,6 +757,59 @@
       </c>
       <c r="C10" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="4">
+        <v>44984</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="4">
+        <v>44985</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="4">
+        <v>44986</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="4">
+        <v>44987</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Contract.xlsx
+++ b/TestData/Contract.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CompanyAdmin" sheetId="1" r:id="rId1"/>
     <sheet name="DraftAddNew" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>URL</t>
   </si>
@@ -128,6 +129,21 @@
   </si>
   <si>
     <t>Period wise to All Left</t>
+  </si>
+  <si>
+    <t>Script</t>
+  </si>
+  <si>
+    <t xml:space="preserve">penalty-Interest -Export and clear </t>
+  </si>
+  <si>
+    <t>Mgmt login</t>
+  </si>
+  <si>
+    <t>performer</t>
+  </si>
+  <si>
+    <t>Reject Statutory and Internal Delete both</t>
   </si>
 </sst>
 </file>
@@ -649,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -815,4 +831,54 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4">
+        <v>44995</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>